--- a/Caso 3/results.xlsx
+++ b/Caso 3/results.xlsx
@@ -20,7 +20,7 @@
     <definedName name="DatosExternos_1" localSheetId="1" hidden="1">Hoja1!$A$1:$I$138</definedName>
     <definedName name="DatosExternos_2" localSheetId="0" hidden="1">Hoja2!$A$1:$I$138</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -3494,6 +3494,1306 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Threads vs Errores</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja2!$N$3:$N$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja2!$Q$6:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>110.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>288.60000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B447-46FD-941D-6755DDB9E3B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1008625368"/>
+        <c:axId val="1008625696"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1008625368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1008625696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1008625696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1008625368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Threads vs Errores</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja2!$N$9:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja2!$Q$9:$Q$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>34.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72.099999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B6E1-4E2F-B4DE-984E8BC5CD9C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1008625368"/>
+        <c:axId val="1008625696"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1008625368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1008625696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1008625696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1008625368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Threads vs CPU</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja2!$N$3:$N$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja2!$R$6:$R$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.4552808001444095</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.594647685405798</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.8163605321322489</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BD80-43DF-8742-DCFD969CD341}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="910427664"/>
+        <c:axId val="910425040"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="910427664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="910425040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="910425040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="910427664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Threads vs CPU</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja2!$N$9:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja2!$R$9:$R$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.2845726573615828</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.7652958847462497</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.7620068412467775</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-090A-44F9-85F4-DAB0429262A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="910427664"/>
+        <c:axId val="910425040"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="910427664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="910425040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="910425040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="910427664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3574,6 +4874,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4091,6 +5551,2070 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4754,6 +8278,158 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C7CCD45-1B80-4A88-9D92-6537AE0CDB0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B47ED1FC-E8DB-4EA3-9C2A-B8C94BBFA832}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1471076-B8A1-4449-B14D-47D475CF7F72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Gráfico 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48D1574E-BF53-4B76-B2D1-BA958F602A92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4802,7 +8478,7 @@
   <tableColumns count="9">
     <tableColumn id="1" uniqueName="1" name="Inicio" queryTableFieldId="1"/>
     <tableColumn id="2" uniqueName="2" name="Fin" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="Descripción" queryTableFieldId="3" dataDxfId="0"/>
+    <tableColumn id="3" uniqueName="3" name="Descripción" queryTableFieldId="3" dataDxfId="1"/>
     <tableColumn id="4" uniqueName="4" name="Tiempo Llave" queryTableFieldId="4"/>
     <tableColumn id="5" uniqueName="5" name="Tiempo Cálculo" queryTableFieldId="5"/>
     <tableColumn id="6" uniqueName="6" name="Errores" queryTableFieldId="6"/>
@@ -4820,7 +8496,7 @@
   <tableColumns count="9">
     <tableColumn id="1" uniqueName="1" name="Inicio" queryTableFieldId="1"/>
     <tableColumn id="2" uniqueName="2" name="Fin" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="Descripcion" queryTableFieldId="3" dataDxfId="1"/>
+    <tableColumn id="3" uniqueName="3" name="Descripcion" queryTableFieldId="3" dataDxfId="0"/>
     <tableColumn id="4" uniqueName="4" name="Tiempo Llave" queryTableFieldId="4"/>
     <tableColumn id="5" uniqueName="5" name="Tiempo Update" queryTableFieldId="5"/>
     <tableColumn id="6" uniqueName="6" name="Errores" queryTableFieldId="6"/>
@@ -5131,8 +8807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H28" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" topLeftCell="H31" workbookViewId="0">
+      <selection activeCell="P56" sqref="P56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
